--- a/Group Documents/SPTA BOM.xlsx
+++ b/Group Documents/SPTA BOM.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
         <v>0.26</v>
       </c>
       <c r="I4" s="3">
-        <f>A4*H4</f>
+        <f t="shared" ref="I4:I25" si="0">A4*H4</f>
         <v>0.26</v>
       </c>
       <c r="J4" s="3">
@@ -928,7 +928,7 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="3">
-        <f>A5*H5</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J5" s="3">
@@ -961,7 +961,7 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="3">
-        <f>A6*H6</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J6" s="3">
@@ -994,7 +994,7 @@
         <v>0.1</v>
       </c>
       <c r="I7" s="3">
-        <f>A7*H7</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J7" s="3">
@@ -1027,7 +1027,7 @@
         <v>0.1</v>
       </c>
       <c r="I8" s="3">
-        <f>A8*H8</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J8" s="3">
@@ -1060,7 +1060,7 @@
         <v>0.1</v>
       </c>
       <c r="I9" s="3">
-        <f>A9*H9</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J9" s="3">
@@ -1093,7 +1093,7 @@
         <v>0.1</v>
       </c>
       <c r="I10" s="3">
-        <f>A10*H10</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J10" s="3">
@@ -1126,7 +1126,7 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="3">
-        <f>A11*H11</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J11" s="3">
@@ -1159,7 +1159,7 @@
         <v>0.1</v>
       </c>
       <c r="I12" s="3">
-        <f>A12*H12</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="J12" s="3">
@@ -1192,7 +1192,7 @@
         <v>0.1</v>
       </c>
       <c r="I13" s="3">
-        <f>A13*H13</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J13" s="3">
@@ -1225,7 +1225,7 @@
         <v>1.03</v>
       </c>
       <c r="I14" s="3">
-        <f>A14*H14</f>
+        <f t="shared" si="0"/>
         <v>2.06</v>
       </c>
       <c r="J14" s="3">
@@ -1258,7 +1258,7 @@
         <v>0.1</v>
       </c>
       <c r="I15" s="3">
-        <f>A15*H15</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J15" s="3">
@@ -1291,7 +1291,7 @@
         <v>0.42</v>
       </c>
       <c r="I16" s="3">
-        <f>A16*H16</f>
+        <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
       <c r="J16" s="3">
@@ -1324,7 +1324,7 @@
         <v>3.51</v>
       </c>
       <c r="I17" s="3">
-        <f>A17*H17</f>
+        <f t="shared" si="0"/>
         <v>3.51</v>
       </c>
       <c r="J17" s="3">
@@ -1357,8 +1357,8 @@
         <v>0.4</v>
       </c>
       <c r="I18" s="3">
-        <f>A30*H18</f>
-        <v>1.2000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="J18" s="3">
         <v>0.1893</v>
@@ -1390,8 +1390,8 @@
         <v>6.4</v>
       </c>
       <c r="I19" s="3">
-        <f>A18*H19</f>
-        <v>12.8</v>
+        <f t="shared" si="0"/>
+        <v>6.4</v>
       </c>
       <c r="J19" s="3">
         <v>4.5</v>
@@ -1423,7 +1423,7 @@
         <v>0.99</v>
       </c>
       <c r="I20" s="3">
-        <f>A19*H20</f>
+        <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
       <c r="J20" s="3">
@@ -1456,7 +1456,7 @@
         <v>15.95</v>
       </c>
       <c r="I21" s="3">
-        <f>A20*H21</f>
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
       <c r="J21" s="3">
@@ -1489,7 +1489,7 @@
         <v>2.5</v>
       </c>
       <c r="I22" s="3">
-        <f>A21*H22</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J22" s="3">
@@ -1522,7 +1522,7 @@
         <v>0.95</v>
       </c>
       <c r="I23" s="3">
-        <f>A22*H23</f>
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
       <c r="J23" s="3">
@@ -1555,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" ref="I24:I25" si="0">A23*H24</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J24" s="3">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I26" s="3">
         <f>SUM(I3:I25)</f>
-        <v>71.66</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I35" s="3">
         <f>I26+I34</f>
-        <v>78.39</v>
+        <v>71.59</v>
       </c>
     </row>
   </sheetData>

--- a/Group Documents/SPTA BOM.xlsx
+++ b/Group Documents/SPTA BOM.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="3">
         <v>8.0000000000000002E-3</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I26" s="3">
         <f>SUM(I3:I25)</f>
-        <v>64.86</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>0.1</v>
       </c>
       <c r="I31" s="3">
-        <f>A31*H31</f>
+        <f t="shared" ref="I31:I33" si="1">A31*H31</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="J31" s="3">
@@ -1718,7 +1718,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
@@ -1742,8 +1742,8 @@
         <v>0.4</v>
       </c>
       <c r="I32" s="3">
-        <f>A32*H32</f>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="J32" s="3">
         <v>0.1893</v>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <f>A33*H33</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J33" s="3">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I34" s="7">
         <f>SUM(I30:I33)</f>
-        <v>6.73</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I35" s="3">
         <f>I26+I34</f>
-        <v>71.59</v>
+        <v>70.89</v>
       </c>
     </row>
   </sheetData>
